--- a/src/b4d_pbi_executive_dashboard/src/b4d_clickup_junio_v2.xlsx
+++ b/src/b4d_pbi_executive_dashboard/src/b4d_clickup_junio_v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\b4d\projects\b4d_analytics\src\b4d_pbi_executive_dashboard\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD09CE0-D5F8-473E-9140-FCD87BC519FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -862,7 +868,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1347,48 +1353,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1396,12 +1402,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1443,7 +1452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1476,9 +1485,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1511,6 +1537,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1686,14 +1729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y95" sqref="Y95"/>
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="Y92" sqref="Y92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
@@ -2662,37 +2705,40 @@
         <v>45809</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
+      <c r="G17">
+        <v>22168.5</v>
+      </c>
       <c r="H17">
-        <v>5000</v>
+        <v>99000</v>
       </c>
       <c r="J17" t="s">
         <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
         <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O17">
         <v>90113131698</v>
@@ -2700,20 +2746,26 @@
       <c r="P17" t="s">
         <v>32</v>
       </c>
+      <c r="Q17" t="s">
+        <v>62</v>
+      </c>
       <c r="R17" s="1">
-        <v>45835</v>
+        <v>45777</v>
       </c>
       <c r="S17" s="1">
-        <v>45835</v>
+        <v>45807</v>
       </c>
       <c r="T17" s="1">
-        <v>45834</v>
+        <v>45672</v>
+      </c>
+      <c r="U17" s="1">
+        <v>45777</v>
       </c>
       <c r="V17" s="1">
-        <v>45834</v>
+        <v>45686</v>
       </c>
       <c r="W17" s="1">
-        <v>45836</v>
+        <v>45785</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -3284,37 +3336,40 @@
         <v>45809</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>27</v>
       </c>
+      <c r="G28">
+        <v>2396.9499999999998</v>
+      </c>
       <c r="H28">
-        <v>3000</v>
+        <v>17974.900000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O28">
         <v>90113131698</v>
@@ -3322,14 +3377,20 @@
       <c r="P28" t="s">
         <v>32</v>
       </c>
+      <c r="Q28" t="s">
+        <v>76</v>
+      </c>
       <c r="R28" s="1">
-        <v>45835</v>
+        <v>45740</v>
       </c>
       <c r="T28" s="1">
-        <v>45814</v>
+        <v>45694</v>
+      </c>
+      <c r="U28" s="1">
+        <v>45701</v>
       </c>
       <c r="W28" s="1">
-        <v>45836</v>
+        <v>45716</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -3883,10 +3944,10 @@
         <v>45809</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -3898,10 +3959,10 @@
         <v>27</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="I38">
+        <v>52076</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -3910,7 +3971,7 @@
         <v>29</v>
       </c>
       <c r="L38" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="M38" t="s">
         <v>271</v>
@@ -3925,22 +3986,16 @@
         <v>32</v>
       </c>
       <c r="Q38" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="R38" s="1">
-        <v>45835</v>
-      </c>
-      <c r="S38" s="1">
-        <v>45835</v>
+        <v>45740</v>
       </c>
       <c r="T38" s="1">
+        <v>45715</v>
+      </c>
+      <c r="W38" s="1">
         <v>45716</v>
-      </c>
-      <c r="U38" s="1">
-        <v>45826</v>
-      </c>
-      <c r="W38" s="1">
-        <v>45836</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -4013,28 +4068,22 @@
         <v>45809</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40">
-        <v>8000</v>
-      </c>
-      <c r="H40">
-        <v>5000</v>
+        <v>60</v>
       </c>
       <c r="I40">
-        <v>5000</v>
+        <v>1328400</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
@@ -4058,22 +4107,22 @@
         <v>32</v>
       </c>
       <c r="Q40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R40" s="1">
-        <v>45835</v>
+        <v>216</v>
       </c>
       <c r="S40" s="1">
-        <v>45827</v>
+        <v>45869</v>
       </c>
       <c r="T40" s="1">
-        <v>45715</v>
+        <v>45813</v>
       </c>
       <c r="U40" s="1">
-        <v>45772</v>
+        <v>45838</v>
+      </c>
+      <c r="V40" s="1">
+        <v>45748</v>
       </c>
       <c r="W40" s="1">
-        <v>45836</v>
+        <v>45814</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -4087,7 +4136,7 @@
         <v>45809</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
         <v>215</v>
@@ -4099,10 +4148,10 @@
         <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I41">
-        <v>1328400</v>
+        <v>1283400</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
@@ -4113,9 +4162,6 @@
       <c r="L41" t="s">
         <v>30</v>
       </c>
-      <c r="M41" t="s">
-        <v>271</v>
-      </c>
       <c r="N41" t="s">
         <v>31</v>
       </c>
@@ -4128,8 +4174,8 @@
       <c r="Q41" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="1">
-        <v>45869</v>
+      <c r="R41" s="1">
+        <v>45813</v>
       </c>
       <c r="T41" s="1">
         <v>45813</v>
@@ -4282,10 +4328,10 @@
         <v>45809</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -4297,7 +4343,13 @@
         <v>27</v>
       </c>
       <c r="G44">
-        <v>1777</v>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>4135</v>
+      </c>
+      <c r="I44">
+        <v>4135</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -4306,31 +4358,31 @@
         <v>29</v>
       </c>
       <c r="L44" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M44" t="s">
         <v>271</v>
       </c>
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
       <c r="O44">
         <v>90113131698</v>
       </c>
       <c r="P44" t="s">
         <v>32</v>
       </c>
-      <c r="Q44" t="s">
-        <v>135</v>
-      </c>
       <c r="R44" s="1">
-        <v>45814</v>
-      </c>
-      <c r="S44" s="1">
-        <v>45814</v>
+        <v>45807</v>
       </c>
       <c r="T44" s="1">
-        <v>45814</v>
+        <v>45716</v>
+      </c>
+      <c r="U44" s="1">
+        <v>45835</v>
       </c>
       <c r="W44" s="1">
-        <v>45815</v>
+        <v>45808</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -4403,34 +4455,37 @@
         <v>45809</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
         <v>27</v>
       </c>
-      <c r="I46">
-        <v>1283400</v>
+      <c r="H46">
+        <v>5000</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s">
         <v>30</v>
       </c>
+      <c r="M46" t="s">
+        <v>69</v>
+      </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O46">
         <v>90113131698</v>
@@ -4438,23 +4493,20 @@
       <c r="P46" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" t="s">
-        <v>216</v>
-      </c>
       <c r="R46" s="1">
-        <v>45813</v>
+        <v>45835</v>
+      </c>
+      <c r="S46" s="1">
+        <v>45835</v>
       </c>
       <c r="T46" s="1">
-        <v>45813</v>
-      </c>
-      <c r="U46" s="1">
-        <v>45838</v>
+        <v>45834</v>
       </c>
       <c r="V46" s="1">
-        <v>45748</v>
+        <v>45834</v>
       </c>
       <c r="W46" s="1">
-        <v>45814</v>
+        <v>45836</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4790,10 +4842,10 @@
         <v>45809</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -4805,13 +4857,10 @@
         <v>27</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>22781.85</v>
       </c>
       <c r="H52">
-        <v>4135</v>
-      </c>
-      <c r="I52">
-        <v>4135</v>
+        <v>37618.769999999997</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -4826,7 +4875,7 @@
         <v>271</v>
       </c>
       <c r="N52" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O52">
         <v>90113131698</v>
@@ -4834,17 +4883,20 @@
       <c r="P52" t="s">
         <v>32</v>
       </c>
+      <c r="Q52" t="s">
+        <v>24</v>
+      </c>
       <c r="R52" s="1">
-        <v>45807</v>
+        <v>45740</v>
       </c>
       <c r="T52" s="1">
+        <v>45662</v>
+      </c>
+      <c r="U52" s="1">
+        <v>45594</v>
+      </c>
+      <c r="W52" s="1">
         <v>45716</v>
-      </c>
-      <c r="U52" s="1">
-        <v>45835</v>
-      </c>
-      <c r="W52" s="1">
-        <v>45808</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5651,13 +5703,13 @@
         <v>45809</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
         <v>59</v>
@@ -5665,26 +5717,20 @@
       <c r="F67" t="s">
         <v>27</v>
       </c>
-      <c r="G67">
-        <v>22168.5</v>
-      </c>
-      <c r="H67">
-        <v>99000</v>
-      </c>
       <c r="J67" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L67" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M67" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="N67" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O67">
         <v>90113131698</v>
@@ -5693,25 +5739,19 @@
         <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="R67" s="1">
-        <v>45777</v>
-      </c>
-      <c r="S67" s="1">
-        <v>45807</v>
+        <v>45740</v>
       </c>
       <c r="T67" s="1">
-        <v>45672</v>
+        <v>45694</v>
       </c>
       <c r="U67" s="1">
-        <v>45777</v>
-      </c>
-      <c r="V67" s="1">
-        <v>45686</v>
+        <v>45701</v>
       </c>
       <c r="W67" s="1">
-        <v>45785</v>
+        <v>45716</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -5940,37 +5980,31 @@
         <v>45809</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F72" t="s">
         <v>27</v>
       </c>
-      <c r="G72">
-        <v>2396.9499999999998</v>
-      </c>
-      <c r="H72">
-        <v>17974.900000000001</v>
+      <c r="I72">
+        <v>7500</v>
       </c>
       <c r="J72" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K72" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L72" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M72" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="N72" t="s">
         <v>42</v>
@@ -5982,16 +6016,13 @@
         <v>32</v>
       </c>
       <c r="Q72" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="R72" s="1">
         <v>45740</v>
       </c>
       <c r="T72" s="1">
-        <v>45694</v>
-      </c>
-      <c r="U72" s="1">
-        <v>45701</v>
+        <v>45712</v>
       </c>
       <c r="W72" s="1">
         <v>45716</v>
@@ -6730,10 +6761,10 @@
         <v>45809</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="D86" t="s">
         <v>25</v>
@@ -6745,10 +6776,7 @@
         <v>27</v>
       </c>
       <c r="G86">
-        <v>1800</v>
-      </c>
-      <c r="I86">
-        <v>52076</v>
+        <v>1777</v>
       </c>
       <c r="J86" t="s">
         <v>28</v>
@@ -6757,14 +6785,11 @@
         <v>29</v>
       </c>
       <c r="L86" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M86" t="s">
         <v>271</v>
       </c>
-      <c r="N86" t="s">
-        <v>42</v>
-      </c>
       <c r="O86">
         <v>90113131698</v>
       </c>
@@ -6772,16 +6797,19 @@
         <v>32</v>
       </c>
       <c r="Q86" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="R86" s="1">
-        <v>45740</v>
+        <v>45814</v>
+      </c>
+      <c r="S86" s="1">
+        <v>45814</v>
       </c>
       <c r="T86" s="1">
-        <v>45715</v>
+        <v>45814</v>
       </c>
       <c r="W86" s="1">
-        <v>45716</v>
+        <v>45815</v>
       </c>
       <c r="X86">
         <v>0</v>
@@ -6795,10 +6823,10 @@
         <v>45809</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="D87" t="s">
         <v>25</v>
@@ -6809,11 +6837,8 @@
       <c r="F87" t="s">
         <v>27</v>
       </c>
-      <c r="G87">
-        <v>22781.85</v>
-      </c>
       <c r="H87">
-        <v>37618.769999999997</v>
+        <v>3000</v>
       </c>
       <c r="J87" t="s">
         <v>28</v>
@@ -6836,20 +6861,14 @@
       <c r="P87" t="s">
         <v>32</v>
       </c>
-      <c r="Q87" t="s">
-        <v>24</v>
-      </c>
       <c r="R87" s="1">
-        <v>45740</v>
+        <v>45835</v>
       </c>
       <c r="T87" s="1">
-        <v>45662</v>
-      </c>
-      <c r="U87" s="1">
-        <v>45594</v>
+        <v>45814</v>
       </c>
       <c r="W87" s="1">
-        <v>45716</v>
+        <v>45836</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -7037,31 +7056,37 @@
         <v>45809</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
         <v>27</v>
       </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
       <c r="J91" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K91" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L91" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="M91" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="N91" t="s">
         <v>42</v>
@@ -7073,19 +7098,22 @@
         <v>32</v>
       </c>
       <c r="Q91" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="R91" s="1">
-        <v>45740</v>
+        <v>45835</v>
+      </c>
+      <c r="S91" s="1">
+        <v>45835</v>
       </c>
       <c r="T91" s="1">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="U91" s="1">
-        <v>45701</v>
+        <v>45826</v>
       </c>
       <c r="W91" s="1">
-        <v>45716</v>
+        <v>45836</v>
       </c>
       <c r="X91">
         <v>0</v>
@@ -7099,19 +7127,28 @@
         <v>45809</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>101</v>
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
       </c>
       <c r="F92" t="s">
         <v>27</v>
       </c>
+      <c r="G92">
+        <v>8000</v>
+      </c>
+      <c r="H92">
+        <v>5000</v>
+      </c>
       <c r="I92">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="J92" t="s">
         <v>28</v>
@@ -7126,7 +7163,7 @@
         <v>271</v>
       </c>
       <c r="N92" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O92">
         <v>90113131698</v>
@@ -7135,22 +7172,28 @@
         <v>32</v>
       </c>
       <c r="Q92" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="R92" s="1">
-        <v>45740</v>
+        <v>45835</v>
+      </c>
+      <c r="S92" s="1">
+        <v>45827</v>
       </c>
       <c r="T92" s="1">
-        <v>45712</v>
+        <v>45715</v>
+      </c>
+      <c r="U92" s="1">
+        <v>45772</v>
       </c>
       <c r="W92" s="1">
-        <v>45716</v>
+        <v>45836</v>
       </c>
       <c r="X92">
         <v>0</v>
       </c>
       <c r="Y92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -7591,9 +7634,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W99">
-    <sortState ref="A17:W92">
-      <sortCondition descending="1" ref="R1:R99"/>
+  <autoFilter ref="A1:W99" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W99">
+      <sortCondition ref="C1:C99"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
